--- a/biology/Mycologie/Kweilingia_divina/Kweilingia_divina.xlsx
+++ b/biology/Mycologie/Kweilingia_divina/Kweilingia_divina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kweilingia divina est une espèce de champignons basidiomycètes de la famille des Phakopsoraceae.
 Ces champignons sont l'un des agents responsables de symptômes de rouille du feuillage chez diverses espèces de bambous (Bambusoideae) en Asie.
-Kweilingia divina est un parasite diécique (ou hétéroécique) qui a besoin de deux plantes-hôtes pour dérouler son cycle de vie : il produit en effet urédinies et téleutosores sur des bambous et pycnides et écidies sur un hôte secondaire, Catunaregam spinosa (Rubiaceae)[2].
+Kweilingia divina est un parasite diécique (ou hétéroécique) qui a besoin de deux plantes-hôtes pour dérouler son cycle de vie : il produit en effet urédinies et téleutosores sur des bambous et pycnides et écidies sur un hôte secondaire, Catunaregam spinosa (Rubiaceae).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 mai 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 mai 2018) :
 Angiopsora divina Syd. 1936
 Caeoma divinum Syd. 1931
 Dasturella divina (Syd.) Mundk. &amp; Khesw. 1943</t>
